--- a/resources/experiment 1/metrics/R2/upto time/Neuropatía (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Neuropatía (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9769401796928177</v>
+        <v>0.9781751630831635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9769677654621582</v>
+        <v>0.9782633397664237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9769677654621582</v>
+        <v>0.9774636623307407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9797695954769744</v>
+        <v>0.9788673185656463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9797667784913942</v>
+        <v>0.9788254521393971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9797667784913942</v>
+        <v>0.9786215090977686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9320592406098628</v>
+        <v>0.8220022803819297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9323609365535057</v>
+        <v>0.8388643957271017</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9323609365535057</v>
+        <v>0.8139862639266873</v>
       </c>
     </row>
   </sheetData>
